--- a/TermProject/TermProjectProposalRubric_CS295N.xlsx
+++ b/TermProject/TermProjectProposalRubric_CS295N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2902D2B9-D09F-2F4C-BC02-96240BE3F28B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95797825-61AA-424E-A853-B5A4CDD11797}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -56,7 +56,16 @@
     <t>Excellent work! Your proposal looks good and includes all the required details. Your web site should meet all the term project requirements and doesn't look like it would be too difficult. It looks like an interesting and fun site!</t>
   </si>
   <si>
-    <t>(You are being garded on the quality and completeness of the proposal, not on whether the proposed site meets all the requirements for the term project.)</t>
+    <t>Poorly written</t>
+  </si>
+  <si>
+    <t>Not clear, doesn't match UI sketch</t>
+  </si>
+  <si>
+    <t>Not done.</t>
+  </si>
+  <si>
+    <t>Nice!</t>
   </si>
 </sst>
 </file>
@@ -970,15 +979,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19">
@@ -991,115 +1003,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="12"/>
-    </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="F7" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(B5:B8)</f>
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM(C5:C8)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4">
-        <f>SUM(B6:B9)</f>
-        <v>50</v>
-      </c>
-      <c r="C10" s="4">
-        <f>SUM(C6:C9)</f>
-        <v>50</v>
-      </c>
+      <c r="A10" s="12"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="8"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
+      <c r="A18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6">
@@ -1107,52 +1129,51 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="1"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
+      <c r="A25" s="4"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4"/>
+      <c r="A26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4"/>
-      <c r="F29" s="6"/>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
+      <c r="A31" s="4"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="4"/>
-      <c r="F32" s="6"/>
+    <row r="33" spans="1:6">
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="F34" s="6"/>
+      <c r="A34" s="12"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="12"/>
@@ -1161,62 +1182,59 @@
       <c r="A36" s="12"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="12"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="7"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8"/>
+      <c r="A39" s="8"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="6"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="6"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="6"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="1"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="4"/>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="55" spans="1:3" s="4" customFormat="1"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="54" spans="1:3" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TermProject/TermProjectProposalRubric_CS295N.xlsx
+++ b/TermProject/TermProjectProposalRubric_CS295N.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/TermProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95797825-61AA-424E-A853-B5A4CDD11797}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F758706-3482-3040-B303-36617A78FCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27880" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Student Points" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -56,16 +69,7 @@
     <t>Excellent work! Your proposal looks good and includes all the required details. Your web site should meet all the term project requirements and doesn't look like it would be too difficult. It looks like an interesting and fun site!</t>
   </si>
   <si>
-    <t>Poorly written</t>
-  </si>
-  <si>
-    <t>Not clear, doesn't match UI sketch</t>
-  </si>
-  <si>
-    <t>Not done.</t>
-  </si>
-  <si>
-    <t>Nice!</t>
+    <t>You are being graded on the quality and completeness of the proposal, not on whether the proposed site meets all the requirements for the term project.</t>
   </si>
 </sst>
 </file>
@@ -622,8 +626,10 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -981,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1008,9 +1014,6 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
@@ -1020,12 +1023,6 @@
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="18">
       <c r="A6" t="s">
@@ -1034,12 +1031,6 @@
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6">
@@ -1049,25 +1040,13 @@
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>20</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -1079,34 +1058,29 @@
         <f>SUM(B5:B8)</f>
         <v>50</v>
       </c>
-      <c r="C9" s="4">
-        <f>SUM(C5:C8)</f>
-        <v>30</v>
-      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="11" spans="1:6" ht="102" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="3"/>
@@ -1172,15 +1146,6 @@
     <row r="33" spans="1:6">
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="12"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="12"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="12"/>
-    </row>
     <row r="37" spans="1:6">
       <c r="A37" s="7"/>
       <c r="B37" s="3"/>
@@ -1236,6 +1201,9 @@
     </row>
     <row r="54" spans="1:3" s="4" customFormat="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1269,7 +1237,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1318,7 +1286,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1398,15 +1366,10 @@
     <row r="28" spans="1:6">
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="12"/>
-    </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="12"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="12"/>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">

--- a/TermProject/TermProjectProposalRubric_CS295N.xlsx
+++ b/TermProject/TermProjectProposalRubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F758706-3482-3040-B303-36617A78FCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD860BBB-EBC3-E84C-A260-623AB49C08D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27880" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30940" yWindow="2960" windowWidth="27880" windowHeight="14720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -63,20 +63,23 @@
     <t>UI sketches</t>
   </si>
   <si>
-    <t>(You are being graded on the quality and completeness of the proposal, not on whether the proposed site meets all the requirements for the term project.)</t>
-  </si>
-  <si>
     <t>Excellent work! Your proposal looks good and includes all the required details. Your web site should meet all the term project requirements and doesn't look like it would be too difficult. It looks like an interesting and fun site!</t>
   </si>
   <si>
     <t>You are being graded on the quality and completeness of the proposal, not on whether the proposed site meets all the requirements for the term project.</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Here's the grade breakdown:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +264,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -607,7 +618,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -628,6 +639,19 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection sqref="A1:D12"/>
+    <sheetView showGridLines="0" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1021,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18">
@@ -1029,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -1038,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1046,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -1056,7 +1080,7 @@
       </c>
       <c r="B9" s="4">
         <f>SUM(B5:B8)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -1065,7 +1089,7 @@
     </row>
     <row r="11" spans="1:6" ht="102" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1212,13 +1236,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19">
@@ -1231,23 +1258,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="3" spans="1:6" ht="75" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="32" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6"/>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1255,11 +1291,12 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D6" s="17"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
@@ -1267,11 +1304,12 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D7" s="17"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
@@ -1279,22 +1317,24 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D9" s="17"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1">
@@ -1303,12 +1343,13 @@
       </c>
       <c r="B10" s="4">
         <f>SUM(B6:B9)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4">
         <f>SUM(C6:C9)</f>
-        <v>50</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8"/>
@@ -1404,6 +1445,10 @@
       <c r="C40" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TermProject/TermProjectProposalRubric_CS295N.xlsx
+++ b/TermProject/TermProjectProposalRubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/TermProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD860BBB-EBC3-E84C-A260-623AB49C08D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEC17D4-9125-496D-B3CC-411C5DEF2942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30940" yWindow="2960" windowWidth="27880" windowHeight="14720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18048" yWindow="4920" windowWidth="13788" windowHeight="10608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Here's the grade breakdown:</t>
+  </si>
+  <si>
+    <t>UI wireframe diagrams</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -638,20 +641,23 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,9 +719,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -753,7 +759,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -859,7 +865,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1001,7 +1007,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1015,15 +1021,15 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.69921875" customWidth="1"/>
+    <col min="2" max="2" width="7.296875" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="4" max="4" width="1.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18">
+    <row r="6" spans="1:6" ht="17.399999999999999">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1088,12 +1094,12 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="102" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:6">
       <c r="F12" s="6"/>
@@ -1234,21 +1240,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="7.796875" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" customWidth="1"/>
+    <col min="4" max="4" width="0.69921875" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1259,30 +1266,31 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="32" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.95" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1296,7 +1304,8 @@
       <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
@@ -1309,7 +1318,8 @@
       <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
@@ -1322,11 +1332,12 @@
       <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -1334,121 +1345,129 @@
       <c r="C9">
         <v>16</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <f>SUM(B6:B9)</f>
         <v>40</v>
       </c>
-      <c r="C10" s="4">
-        <f>SUM(C6:C9)</f>
+      <c r="C11" s="4">
+        <f>SUM(C6:C10)</f>
         <v>40</v>
       </c>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:6">
+      <c r="A12" s="8"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
-      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="1"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="F18" s="6"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4"/>
-      <c r="F20" s="6"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="F19" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="F22" s="6"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="F25" s="6"/>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="F28" s="6"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="F30" s="6"/>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="F29" s="6"/>
     </row>
     <row r="31" spans="1:6">
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="7"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:3">
+      <c r="A33" s="7"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="8"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="6"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="8"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>